--- a/data 9.xlsx
+++ b/data 9.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stijn\Desktop\3DMiB- Data Driven Decisionmaking in Business\FSDV Storytelling with Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stijn\Documents\GitHub\Storytelling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73DDCE6C-AE5D-4390-A603-899EFE6AA1BC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6946328A-785A-48A1-B119-B7B7F86A7ACC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="53652" yWindow="-8928" windowWidth="30936" windowHeight="16896" xr2:uid="{6D36932B-00AA-47A4-8BBB-B009AF6F3635}"/>
+    <workbookView xWindow="28800" yWindow="-7164" windowWidth="19476" windowHeight="15252" xr2:uid="{6D36932B-00AA-47A4-8BBB-B009AF6F3635}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -36,21 +36,6 @@
     <t>Contract index</t>
   </si>
   <si>
-    <t>Mono Packaging Materials</t>
-  </si>
-  <si>
-    <t>Trio PET PLC</t>
-  </si>
-  <si>
-    <t>Miami Oranges</t>
-  </si>
-  <si>
-    <t>NO8DO Mango</t>
-  </si>
-  <si>
-    <t>Seitan Vitamins</t>
-  </si>
-  <si>
     <t>4 uur</t>
   </si>
   <si>
@@ -61,6 +46,21 @@
   </si>
   <si>
     <t>1 week</t>
+  </si>
+  <si>
+    <t>A Mono Packaging Materials</t>
+  </si>
+  <si>
+    <t>B Trio PET PLC</t>
+  </si>
+  <si>
+    <t>C Miami Oranges</t>
+  </si>
+  <si>
+    <t>D NO8DO Mango</t>
+  </si>
+  <si>
+    <t>E Seitan Vitamins</t>
   </si>
 </sst>
 </file>
@@ -453,7 +453,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="A1:C21"/>
+      <selection activeCell="A2" sqref="A2:A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -475,10 +475,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="C2" s="5">
         <v>0.99399999999999999</v>
@@ -486,10 +486,10 @@
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C3" s="6">
         <v>0.99199999999999999</v>
@@ -497,10 +497,10 @@
     </row>
     <row r="4" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C4" s="6">
         <v>0.99039999999999995</v>
@@ -508,10 +508,10 @@
     </row>
     <row r="5" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C5" s="6">
         <v>0.98799999999999999</v>
@@ -519,10 +519,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C6" s="5">
         <v>0.96499999999999997</v>
@@ -530,10 +530,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="C7" s="6">
         <v>0.96199999999999997</v>
@@ -541,10 +541,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C8" s="6">
         <v>0.95960000000000001</v>
@@ -552,10 +552,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C9" s="6">
         <v>0.95599999999999996</v>
@@ -563,10 +563,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C10" s="6">
         <v>1.0089999999999999</v>
@@ -574,10 +574,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C11" s="7">
         <v>1.004</v>
@@ -585,10 +585,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="C12" s="6">
         <v>1</v>
@@ -596,10 +596,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C13" s="6">
         <v>0.99399999999999999</v>
@@ -607,10 +607,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C14" s="6">
         <v>1.06</v>
@@ -618,10 +618,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C15" s="8">
         <v>1.0580000000000001</v>
@@ -629,10 +629,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C16" s="6">
         <v>1.0564</v>
@@ -640,10 +640,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="C17" s="6">
         <v>1.054</v>
@@ -651,10 +651,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C18" s="6">
         <v>0.96679999999999999</v>
@@ -662,10 +662,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C19" s="5">
         <v>0.96579999999999999</v>
@@ -673,10 +673,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C20" s="6">
         <v>0.96499999999999997</v>
@@ -684,10 +684,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C21" s="6">
         <v>0.96379999999999999</v>
